--- a/ESERCIZIO GPOI.xlsx
+++ b/ESERCIZIO GPOI.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28822"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7451EC64-CA0D-4299-9F7E-8C5E4215008E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{762074CE-4D97-4200-8539-6777CA950FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,8 +91,9 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">MARCO SENESI:
-CPI &lt; 1 --&gt; stiamo sforando il budget </t>
+          <t>MARCO SENESI:
+CPI &lt; 1 --&gt; stiamo sforando il budget 
+CPI &gt; 1 --&gt; siamo nel budget</t>
         </r>
       </text>
     </comment>
@@ -113,17 +114,10 @@
     </comment>
     <comment ref="H20" authorId="0" shapeId="0" xr:uid="{2A58125C-8E3D-41FD-9D88-729161D16582}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>MARCO SENESI:
-SPI &gt; 1 --&gt; siamo in anticipo</t>
-        </r>
+        <t xml:space="preserve">MARCO SENESI:
+SPi &lt; 1 --&gt; siamo in ritardo
+SPI &gt; 1 --&gt; siamo in anticipo
+</t>
       </text>
     </comment>
     <comment ref="G23" authorId="0" shapeId="0" xr:uid="{822AF97E-A907-4EC9-966D-CBBDC2377318}">
@@ -730,11 +724,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" customWidth="1"/>
     <col min="9" max="9" width="3.85546875" customWidth="1"/>
     <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -818,8 +815,8 @@
         <v>400</v>
       </c>
       <c r="P6" s="7">
-        <f>(J6/100)*K6</f>
-        <v>400</v>
+        <f>(J6/100)*H6</f>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="4:16">
@@ -851,9 +848,9 @@
         <f t="shared" ref="O7:O13" si="1">K7</f>
         <v>1800</v>
       </c>
-      <c r="P7" s="6">
-        <f t="shared" ref="P7:P13" si="2">(J7/100)*K7</f>
-        <v>1800</v>
+      <c r="P7" s="7">
+        <f t="shared" ref="P7:P13" si="2">(J7/100)*H7</f>
+        <v>700</v>
       </c>
     </row>
     <row r="8" spans="4:16">
@@ -885,9 +882,9 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="7">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="4:16">
@@ -919,9 +916,9 @@
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="7">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="4:16">
@@ -953,9 +950,9 @@
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="7">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="4:16">
@@ -987,9 +984,9 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="7">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="4:16">
@@ -1021,9 +1018,9 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="4:16">
@@ -1049,7 +1046,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1076,7 +1073,7 @@
       </c>
       <c r="P16" s="6">
         <f>SUM(P6:P13)</f>
-        <v>4645</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="18" spans="5:13">
@@ -1088,7 +1085,7 @@
       </c>
       <c r="H19" s="10">
         <f>P16/O16</f>
-        <v>0.8445454545454546</v>
+        <v>0.31090909090909091</v>
       </c>
     </row>
     <row r="20" spans="5:13">
@@ -1097,7 +1094,7 @@
       </c>
       <c r="H20" s="10">
         <f>P16/N16</f>
-        <v>2.7163742690058479</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="5:13">
@@ -1125,7 +1122,7 @@
       </c>
       <c r="H25" s="10">
         <f>O16+(H22-P16)/H19</f>
-        <v>5150.6996770721207</v>
+        <v>13991.228070175439</v>
       </c>
     </row>
     <row r="26" spans="5:13">
@@ -1134,7 +1131,7 @@
       </c>
       <c r="H26" s="10">
         <f>H23/H20</f>
-        <v>4.785791173304629</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
